--- a/data/scenario_classification_inequality.xlsx
+++ b/data/scenario_classification_inequality.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoswald\Dropbox\Arbeit\postdoc_lausanne\papers\convergence\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F706B-6A13-4FC8-9164-0B9564A2C48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03312428-5E34-4511-B71C-5D5A28221780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>80000</v>
+        <v>60307.645701320187</v>
       </c>
       <c r="D2">
         <v>2100</v>
@@ -461,7 +461,7 @@
         <v>0.17</v>
       </c>
       <c r="F2">
-        <v>638333113520000</v>
+        <v>481204590619809.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>60000</v>
+        <v>47922.608624798413</v>
       </c>
       <c r="D3">
         <v>2100</v>
@@ -481,7 +481,7 @@
         <v>0.2</v>
       </c>
       <c r="F3">
-        <v>593071081739999.88</v>
+        <v>473691888948530.69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>20000</v>
+        <v>24328.078252780277</v>
       </c>
       <c r="D4">
         <v>2100</v>
@@ -501,7 +501,7 @@
         <v>0.34</v>
       </c>
       <c r="F4">
-        <v>261179640740000</v>
+        <v>317699936897788</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>40000</v>
+        <v>37497.853964076545</v>
       </c>
       <c r="D5">
         <v>2100</v>
@@ -521,7 +521,7 @@
         <v>0.54</v>
       </c>
       <c r="F5">
-        <v>479788360440000</v>
+        <v>449775846836071</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>100000</v>
+        <v>72881.854093165908</v>
       </c>
       <c r="D6">
         <v>2100</v>
@@ -541,7 +541,7 @@
         <v>0.22</v>
       </c>
       <c r="F6">
-        <v>800662141500000.25</v>
+        <v>583537413747247.75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -608,5 +608,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>